--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2324972.456838823</v>
+        <v>2315207.535323982</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8342716.186936169</v>
+        <v>8339344.196504717</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1598463.049920511</v>
+        <v>1551035.928624884</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9257830.303406868</v>
+        <v>9270454.220606416</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>19.56274131285412</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>12.35200489467393</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.68669557114269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.86547882798917</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>39.58387696184059</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G8" t="n">
-        <v>15.28796821707176</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H8" t="n">
-        <v>1.400675403560889</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>40.62237561541726</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X9" t="n">
-        <v>35.78018844205953</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K10" t="n">
-        <v>10.78085626286892</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>335.7337444018856</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>157.9129601122389</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.64669871780461</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>47.84314790707874</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>70.59035442729744</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>329.0347470544486</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>128.4318786664562</v>
       </c>
       <c r="X16" t="n">
-        <v>156.2181152218157</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>86.30923289504796</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,10 +2137,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>95.49953965996514</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2374,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>59.35991151980232</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>123.8259208165764</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>54.79076246174055</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396183</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U32" t="n">
         <v>250.9951719589016</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>28.20584125154458</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>67.29550153246952</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.32164802801806</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,16 +3480,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>51.97044485649312</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>104.3314347280264</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>327.008649816013</v>
+        <v>347.1308021595167</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.01141625626308</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>80.20970661362219</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>168.2645986348486</v>
+        <v>218.442206867756</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.2134211694139</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.93482921065078</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.60773488116507</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="C2" t="n">
-        <v>58.60773488116507</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="D2" t="n">
-        <v>58.60773488116507</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="E2" t="n">
-        <v>58.60773488116507</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="F2" t="n">
-        <v>18.62402077829578</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="U2" t="n">
-        <v>118.3517937444931</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="V2" t="n">
-        <v>98.59144898403436</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="W2" t="n">
-        <v>98.59144898403436</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="X2" t="n">
-        <v>98.59144898403436</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="Y2" t="n">
-        <v>58.60773488116507</v>
+        <v>100.2684856730375</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H3" t="n">
-        <v>43.15042425981653</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L3" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T3" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U3" t="n">
-        <v>78.36807964162378</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.15042425981653</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.6285745504463</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.55323563036853</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="C5" t="n">
-        <v>65.55323563036853</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="D5" t="n">
-        <v>25.56952152749925</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="E5" t="n">
-        <v>25.56952152749925</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="F5" t="n">
-        <v>18.62402077829578</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T5" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U5" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V5" t="n">
-        <v>118.3517937444931</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>97.8833284203818</v>
       </c>
       <c r="X5" t="n">
-        <v>118.3517937444931</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.5369497332378</v>
+        <v>70.01461603622408</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T6" t="n">
-        <v>118.3517937444931</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.36807964162378</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R7" t="n">
-        <v>93.21247408113457</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="S7" t="n">
-        <v>93.21247408113457</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="T7" t="n">
-        <v>93.21247408113457</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="U7" t="n">
-        <v>93.21247408113457</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="V7" t="n">
-        <v>53.22875997826529</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="W7" t="n">
-        <v>53.22875997826529</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="X7" t="n">
-        <v>13.245045875396</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>77.87121125924466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="C8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="D8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="E8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="F8" t="n">
-        <v>30.91080748736103</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="G8" t="n">
-        <v>15.4684153489047</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="H8" t="n">
-        <v>14.05359170894421</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="I8" t="n">
-        <v>14.05359170894421</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J8" t="n">
-        <v>3.249790049233381</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>43.46594190849647</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>43.46594190849647</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
-        <v>43.46594190849647</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N8" t="n">
-        <v>82.05719874314289</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O8" t="n">
-        <v>122.273350602406</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P8" t="n">
-        <v>162.489502461669</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>154.0089154128679</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>112.9762127710323</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="T8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="U8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="V8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="W8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="X8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="Y8" t="n">
-        <v>71.94351012919665</v>
+        <v>70.01461603622408</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="C9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="D9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="E9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="F9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="G9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>41.84104688387981</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>82.05719874314289</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M9" t="n">
-        <v>122.273350602406</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N9" t="n">
-        <v>122.273350602406</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O9" t="n">
-        <v>162.489502461669</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
-        <v>162.489502461669</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.489502461669</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>162.489502461669</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>121.4567998198334</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T9" t="n">
-        <v>80.42409717799782</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U9" t="n">
-        <v>39.3913945361622</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V9" t="n">
-        <v>39.3913945361622</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W9" t="n">
-        <v>39.3913945361622</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X9" t="n">
-        <v>3.249790049233381</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.249790049233381</v>
+        <v>2.961334673611005</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.1722464919467</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="C10" t="n">
-        <v>55.1722464919467</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="D10" t="n">
-        <v>14.13954385011108</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="E10" t="n">
-        <v>14.13954385011108</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="F10" t="n">
-        <v>14.13954385011108</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="G10" t="n">
-        <v>14.13954385011108</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="H10" t="n">
-        <v>14.13954385011108</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="I10" t="n">
-        <v>14.13954385011108</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J10" t="n">
-        <v>14.13954385011108</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K10" t="n">
-        <v>3.249790049233381</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>31.53902210970904</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>71.75517396897213</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>111.9713258282352</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>137.2376517756179</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2376517756179</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.2376517756179</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="R10" t="n">
-        <v>137.2376517756179</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="S10" t="n">
-        <v>137.2376517756179</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="T10" t="n">
-        <v>137.2376517756179</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="U10" t="n">
-        <v>137.2376517756179</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="V10" t="n">
-        <v>96.20494913378232</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="W10" t="n">
-        <v>96.20494913378232</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="X10" t="n">
-        <v>96.20494913378232</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="Y10" t="n">
-        <v>96.20494913378232</v>
+        <v>80.43906297690118</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.3499432822</v>
+        <v>1968.687085810189</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.387426341789</v>
+        <v>1599.724568869777</v>
       </c>
       <c r="D11" t="n">
-        <v>985.1217277350381</v>
+        <v>1241.458870263027</v>
       </c>
       <c r="E11" t="n">
-        <v>985.1217277350381</v>
+        <v>902.3338759176879</v>
       </c>
       <c r="F11" t="n">
-        <v>574.1358229454306</v>
+        <v>491.3479711280804</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6277824280176</v>
+        <v>76.27552097307684</v>
       </c>
       <c r="H11" t="n">
-        <v>117.0441820367848</v>
+        <v>76.27552097307684</v>
       </c>
       <c r="I11" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307684</v>
       </c>
       <c r="J11" t="n">
-        <v>263.926414235279</v>
+        <v>265.1546519321023</v>
       </c>
       <c r="K11" t="n">
-        <v>597.7457879251255</v>
+        <v>919.8779840674018</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.780001173534</v>
+        <v>1370.912197315811</v>
       </c>
       <c r="M11" t="n">
-        <v>1582.311905845459</v>
+        <v>1904.444101987735</v>
       </c>
       <c r="N11" t="n">
-        <v>2129.090722904241</v>
+        <v>2451.222919046518</v>
       </c>
       <c r="O11" t="n">
-        <v>2632.063193783578</v>
+        <v>2954.195389925855</v>
       </c>
       <c r="P11" t="n">
-        <v>3345.418281230524</v>
+        <v>3506.472620341357</v>
       </c>
       <c r="Q11" t="n">
-        <v>3693.347097255874</v>
+        <v>3754.758982097039</v>
       </c>
       <c r="R11" t="n">
-        <v>3752.364163812676</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="S11" t="n">
-        <v>3752.364163812676</v>
+        <v>3703.485380180937</v>
       </c>
       <c r="T11" t="n">
-        <v>3546.386416196899</v>
+        <v>3703.485380180937</v>
       </c>
       <c r="U11" t="n">
-        <v>3546.386416196899</v>
+        <v>3449.954903454773</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.323528853328</v>
+        <v>3118.892016111202</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.554873583214</v>
+        <v>3118.892016111202</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.089115322134</v>
+        <v>2745.426257850123</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.949783346322</v>
+        <v>2355.286925874311</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>950.0790213251788</v>
+        <v>951.3072590220021</v>
       </c>
       <c r="C12" t="n">
-        <v>775.6259920440518</v>
+        <v>776.8542297408751</v>
       </c>
       <c r="D12" t="n">
-        <v>626.6915823828006</v>
+        <v>627.9198200796238</v>
       </c>
       <c r="E12" t="n">
-        <v>467.454127377345</v>
+        <v>468.6823650741683</v>
       </c>
       <c r="F12" t="n">
-        <v>320.9195694042299</v>
+        <v>322.1478071010532</v>
       </c>
       <c r="G12" t="n">
-        <v>184.556469236848</v>
+        <v>185.7847069336713</v>
       </c>
       <c r="H12" t="n">
-        <v>94.05457487471557</v>
+        <v>95.28281257153887</v>
       </c>
       <c r="I12" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307684</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7245527668709</v>
+        <v>169.9527904636942</v>
       </c>
       <c r="K12" t="n">
-        <v>406.988751747218</v>
+        <v>408.2169894440413</v>
       </c>
       <c r="L12" t="n">
-        <v>773.6869120598834</v>
+        <v>774.9151497567067</v>
       </c>
       <c r="M12" t="n">
-        <v>1220.963237282199</v>
+        <v>1222.191474979023</v>
       </c>
       <c r="N12" t="n">
-        <v>1694.486280836654</v>
+        <v>1695.714518533477</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.447560254709</v>
+        <v>2106.675797951532</v>
       </c>
       <c r="P12" t="n">
-        <v>2415.947151730812</v>
+        <v>2417.175389427635</v>
       </c>
       <c r="Q12" t="n">
-        <v>2573.588709377411</v>
+        <v>2574.816947074235</v>
       </c>
       <c r="R12" t="n">
-        <v>2573.444355969927</v>
+        <v>2574.67259366675</v>
       </c>
       <c r="S12" t="n">
-        <v>2444.006469463407</v>
+        <v>2445.23470716023</v>
       </c>
       <c r="T12" t="n">
-        <v>2251.363469141262</v>
+        <v>2252.591706838085</v>
       </c>
       <c r="U12" t="n">
-        <v>2023.295622275678</v>
+        <v>2024.523859972501</v>
       </c>
       <c r="V12" t="n">
-        <v>1788.143514043935</v>
+        <v>1789.371751740758</v>
       </c>
       <c r="W12" t="n">
-        <v>1533.906157315733</v>
+        <v>1535.134395012557</v>
       </c>
       <c r="X12" t="n">
-        <v>1326.054657110201</v>
+        <v>1327.282894807024</v>
       </c>
       <c r="Y12" t="n">
-        <v>1118.294358345247</v>
+        <v>1119.52259604207</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>708.0201290239195</v>
+        <v>805.0432587882229</v>
       </c>
       <c r="C13" t="n">
-        <v>539.0839460960126</v>
+        <v>636.1070758603161</v>
       </c>
       <c r="D13" t="n">
-        <v>388.9673066836768</v>
+        <v>636.1070758603161</v>
       </c>
       <c r="E13" t="n">
-        <v>388.9673066836768</v>
+        <v>488.1939822779229</v>
       </c>
       <c r="F13" t="n">
-        <v>388.9673066836768</v>
+        <v>341.3040347800126</v>
       </c>
       <c r="G13" t="n">
-        <v>221.2644700583958</v>
+        <v>173.6011981547315</v>
       </c>
       <c r="H13" t="n">
-        <v>75.04728327625354</v>
+        <v>173.6011981547315</v>
       </c>
       <c r="I13" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307684</v>
       </c>
       <c r="J13" t="n">
-        <v>120.1699157231891</v>
+        <v>121.3981534200124</v>
       </c>
       <c r="K13" t="n">
-        <v>324.1570986720654</v>
+        <v>325.3853363688888</v>
       </c>
       <c r="L13" t="n">
-        <v>640.7168971205615</v>
+        <v>641.9451348173849</v>
       </c>
       <c r="M13" t="n">
-        <v>984.8739427201106</v>
+        <v>986.1021804169338</v>
       </c>
       <c r="N13" t="n">
-        <v>1326.282319425975</v>
+        <v>1327.510557122798</v>
       </c>
       <c r="O13" t="n">
-        <v>1625.611918346389</v>
+        <v>1626.840156043212</v>
       </c>
       <c r="P13" t="n">
-        <v>1858.219418780048</v>
+        <v>1859.447656476871</v>
       </c>
       <c r="Q13" t="n">
-        <v>1935.829714932563</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="R13" t="n">
-        <v>1881.641130369124</v>
+        <v>1847.227495386914</v>
       </c>
       <c r="S13" t="n">
-        <v>1689.95524619595</v>
+        <v>1847.227495386914</v>
       </c>
       <c r="T13" t="n">
-        <v>1468.188630765476</v>
+        <v>1625.46087995644</v>
       </c>
       <c r="U13" t="n">
-        <v>1179.08576389112</v>
+        <v>1577.134467929088</v>
       </c>
       <c r="V13" t="n">
-        <v>1179.08576389112</v>
+        <v>1322.449979723201</v>
       </c>
       <c r="W13" t="n">
-        <v>889.6685938541592</v>
+        <v>1033.03280968624</v>
       </c>
       <c r="X13" t="n">
-        <v>889.6685938541592</v>
+        <v>805.0432587882229</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.6685938541592</v>
+        <v>805.0432587882229</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.3499432822</v>
+        <v>2057.347242823626</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.387426341789</v>
+        <v>1688.384725883214</v>
       </c>
       <c r="D14" t="n">
-        <v>985.1217277350381</v>
+        <v>1330.119027276464</v>
       </c>
       <c r="E14" t="n">
-        <v>599.3334751367938</v>
+        <v>944.3307746782193</v>
       </c>
       <c r="F14" t="n">
-        <v>188.3475703471863</v>
+        <v>533.3448698886117</v>
       </c>
       <c r="G14" t="n">
-        <v>117.0441820367848</v>
+        <v>118.2724197336081</v>
       </c>
       <c r="H14" t="n">
-        <v>117.0441820367848</v>
+        <v>118.2724197336081</v>
       </c>
       <c r="I14" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J14" t="n">
-        <v>263.926414235279</v>
+        <v>432.5603009524553</v>
       </c>
       <c r="K14" t="n">
-        <v>597.7457879251255</v>
+        <v>766.3796746423018</v>
       </c>
       <c r="L14" t="n">
-        <v>1148.422455443202</v>
+        <v>1217.413887890711</v>
       </c>
       <c r="M14" t="n">
-        <v>1681.954360115126</v>
+        <v>1750.945792562635</v>
       </c>
       <c r="N14" t="n">
-        <v>2228.733177173909</v>
+        <v>2297.724609621418</v>
       </c>
       <c r="O14" t="n">
-        <v>2731.705648053246</v>
+        <v>3111.698253984179</v>
       </c>
       <c r="P14" t="n">
-        <v>3445.060735500192</v>
+        <v>3506.472620341357</v>
       </c>
       <c r="Q14" t="n">
-        <v>3693.347097255874</v>
+        <v>3754.75898209704</v>
       </c>
       <c r="R14" t="n">
-        <v>3752.364163812676</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="S14" t="n">
-        <v>3752.364163812676</v>
+        <v>3703.485380180937</v>
       </c>
       <c r="T14" t="n">
-        <v>3546.386416196899</v>
+        <v>3497.507632565159</v>
       </c>
       <c r="U14" t="n">
-        <v>3546.386416196899</v>
+        <v>3497.507632565159</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.323528853328</v>
+        <v>3166.444745221589</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.554873583214</v>
+        <v>2834.08641486356</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.089115322134</v>
+        <v>2834.08641486356</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.949783346322</v>
+        <v>2443.947082887748</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>950.0790213251788</v>
+        <v>951.3072590220021</v>
       </c>
       <c r="C15" t="n">
-        <v>775.6259920440518</v>
+        <v>776.8542297408751</v>
       </c>
       <c r="D15" t="n">
-        <v>626.6915823828006</v>
+        <v>627.9198200796238</v>
       </c>
       <c r="E15" t="n">
-        <v>467.454127377345</v>
+        <v>468.6823650741683</v>
       </c>
       <c r="F15" t="n">
-        <v>320.9195694042299</v>
+        <v>322.1478071010533</v>
       </c>
       <c r="G15" t="n">
-        <v>184.556469236848</v>
+        <v>185.7847069336714</v>
       </c>
       <c r="H15" t="n">
-        <v>94.05457487471557</v>
+        <v>95.2828125715389</v>
       </c>
       <c r="I15" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7245527668709</v>
+        <v>169.9527904636942</v>
       </c>
       <c r="K15" t="n">
-        <v>406.988751747218</v>
+        <v>408.2169894440414</v>
       </c>
       <c r="L15" t="n">
-        <v>773.6869120598834</v>
+        <v>774.9151497567068</v>
       </c>
       <c r="M15" t="n">
-        <v>1220.963237282199</v>
+        <v>1222.191474979023</v>
       </c>
       <c r="N15" t="n">
-        <v>1694.486280836654</v>
+        <v>1695.714518533477</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.447560254709</v>
+        <v>2106.675797951532</v>
       </c>
       <c r="P15" t="n">
-        <v>2415.947151730812</v>
+        <v>2417.175389427635</v>
       </c>
       <c r="Q15" t="n">
-        <v>2573.588709377411</v>
+        <v>2574.816947074235</v>
       </c>
       <c r="R15" t="n">
-        <v>2573.444355969927</v>
+        <v>2574.67259366675</v>
       </c>
       <c r="S15" t="n">
-        <v>2444.006469463407</v>
+        <v>2445.23470716023</v>
       </c>
       <c r="T15" t="n">
-        <v>2251.363469141262</v>
+        <v>2252.591706838085</v>
       </c>
       <c r="U15" t="n">
-        <v>2023.295622275678</v>
+        <v>2024.523859972501</v>
       </c>
       <c r="V15" t="n">
-        <v>1788.143514043935</v>
+        <v>1789.371751740758</v>
       </c>
       <c r="W15" t="n">
-        <v>1533.906157315733</v>
+        <v>1535.134395012557</v>
       </c>
       <c r="X15" t="n">
-        <v>1326.054657110201</v>
+        <v>1327.282894807024</v>
       </c>
       <c r="Y15" t="n">
-        <v>1118.294358345247</v>
+        <v>1119.52259604207</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.2060774477245</v>
+        <v>639.3337677747414</v>
       </c>
       <c r="C16" t="n">
-        <v>634.2060774477245</v>
+        <v>639.3337677747414</v>
       </c>
       <c r="D16" t="n">
-        <v>634.2060774477245</v>
+        <v>489.2171283624057</v>
       </c>
       <c r="E16" t="n">
-        <v>486.2929838653314</v>
+        <v>341.3040347800126</v>
       </c>
       <c r="F16" t="n">
-        <v>486.2929838653314</v>
+        <v>341.3040347800126</v>
       </c>
       <c r="G16" t="n">
-        <v>318.5901472400504</v>
+        <v>173.6011981547315</v>
       </c>
       <c r="H16" t="n">
-        <v>172.3729604579082</v>
+        <v>173.6011981547315</v>
       </c>
       <c r="I16" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J16" t="n">
-        <v>120.1699157231891</v>
+        <v>121.3981534200124</v>
       </c>
       <c r="K16" t="n">
-        <v>324.1570986720654</v>
+        <v>325.3853363688888</v>
       </c>
       <c r="L16" t="n">
-        <v>640.7168971205615</v>
+        <v>641.945134817385</v>
       </c>
       <c r="M16" t="n">
-        <v>984.8739427201106</v>
+        <v>986.1021804169341</v>
       </c>
       <c r="N16" t="n">
-        <v>1326.282319425975</v>
+        <v>1327.510557122799</v>
       </c>
       <c r="O16" t="n">
-        <v>1625.611918346389</v>
+        <v>1626.840156043212</v>
       </c>
       <c r="P16" t="n">
-        <v>1858.219418780048</v>
+        <v>1859.447656476872</v>
       </c>
       <c r="Q16" t="n">
-        <v>1935.829714932563</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.999257690091</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.999257690091</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.999257690091</v>
+        <v>1715.291337198913</v>
       </c>
       <c r="U16" t="n">
-        <v>1556.896390815734</v>
+        <v>1426.188470324556</v>
       </c>
       <c r="V16" t="n">
-        <v>1302.211902609847</v>
+        <v>1171.503982118669</v>
       </c>
       <c r="W16" t="n">
-        <v>1012.794732572887</v>
+        <v>1041.774811748511</v>
       </c>
       <c r="X16" t="n">
-        <v>854.9986565912546</v>
+        <v>1041.774811748511</v>
       </c>
       <c r="Y16" t="n">
-        <v>634.2060774477245</v>
+        <v>820.9822326049812</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5521,22 +5521,22 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1407.474004094473</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M17" t="n">
-        <v>1941.005908766398</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.758180993045</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>3800.7228313225</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1677.476538603199</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1677.476538603199</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1422.792050397312</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.374880360351</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1133.374880360351</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.374880360351</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5743,7 +5743,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5755,25 +5755,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2504.619866888352</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3051.398683947134</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>755.2936629429144</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>586.3574800150075</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>436.2408406026717</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>436.2408406026717</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>289.3508931047613</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>289.3508931047613</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1385.724257814702</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1385.724257814702</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.734706916684</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>936.9421277731541</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551631</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001596</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,16 +5989,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463053</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
         <v>2602.177459903277</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>399.0634049978502</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>399.0634049978502</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>399.0634049978502</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>399.0634049978502</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2151.197749519704</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3130.950021746351</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
         <v>4405.689038432984</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>465.8764929059537</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>340.7998052124422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1385.724257814702</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1096.307087777741</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>868.3175368797235</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>647.5249577361934</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2016.310259422546</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2996.062531649192</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3479.864977067451</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C31" t="n">
-        <v>3310.928794139544</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D31" t="n">
-        <v>3160.812154727209</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E31" t="n">
-        <v>3160.812154727209</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F31" t="n">
-        <v>3160.812154727209</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4722.707517912912</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>4433.604651038556</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V31" t="n">
-        <v>4178.920162832669</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>3889.502992795708</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X31" t="n">
-        <v>3661.513441897691</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y31" t="n">
-        <v>3661.513441897691</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2903.481887689699</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232729</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679675</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188663</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419718</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946813</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
@@ -6736,13 +6736,13 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
         <v>2760.816196754298</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3478.631630764823</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C34" t="n">
-        <v>3478.631630764823</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>3328.514991352487</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>3328.514991352487</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352487</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727206</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945064</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763409</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210345</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159221</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607718</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207266</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913131</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833545</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267203</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419718</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177246</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177246</v>
+        <v>1927.85271736577</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746772</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="U34" t="n">
-        <v>4398.47939567357</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V34" t="n">
-        <v>4398.47939567357</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W34" t="n">
-        <v>4109.06222563661</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X34" t="n">
-        <v>3881.072674738592</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y34" t="n">
-        <v>3660.280095595062</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="35">
@@ -6931,31 +6931,31 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196075</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.189928969821</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6979,7 +6979,7 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
         <v>2760.816196754298</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>561.5038042865474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>392.5676213586405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>874.5404723472675</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>874.5404723472675</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>653.7478932037374</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
@@ -7165,7 +7165,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,16 +7177,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>625.8141267662577</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>823.6560115477723</v>
+        <v>878.3549562226575</v>
       </c>
       <c r="C40" t="n">
-        <v>654.7198286198654</v>
+        <v>709.4187732947506</v>
       </c>
       <c r="D40" t="n">
-        <v>654.7198286198654</v>
+        <v>559.3021338824149</v>
       </c>
       <c r="E40" t="n">
         <v>506.8067350374723</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.85531162628</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.43814158932</v>
+        <v>1287.992971950915</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.448590691302</v>
+        <v>1060.003421052897</v>
       </c>
       <c r="Y40" t="n">
-        <v>823.6560115477723</v>
+        <v>1060.003421052897</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2353.702605518035</v>
+        <v>2312.933944454327</v>
       </c>
       <c r="C41" t="n">
-        <v>1984.740088577623</v>
+        <v>1943.971427513915</v>
       </c>
       <c r="D41" t="n">
-        <v>1626.474389970873</v>
+        <v>1585.705728907165</v>
       </c>
       <c r="E41" t="n">
-        <v>1240.686137372629</v>
+        <v>1199.917476308921</v>
       </c>
       <c r="F41" t="n">
-        <v>829.700232583021</v>
+        <v>788.9315715193131</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6277824280176</v>
+        <v>373.8591213643097</v>
       </c>
       <c r="H41" t="n">
-        <v>117.0441820367848</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="I41" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J41" t="n">
-        <v>431.332063255632</v>
+        <v>265.1546519321023</v>
       </c>
       <c r="K41" t="n">
-        <v>765.1514369454785</v>
+        <v>758.8001270359591</v>
       </c>
       <c r="L41" t="n">
-        <v>1216.185650193887</v>
+        <v>1209.834340284368</v>
       </c>
       <c r="M41" t="n">
-        <v>1749.717554865812</v>
+        <v>1743.366244956293</v>
       </c>
       <c r="N41" t="n">
-        <v>2296.496371924594</v>
+        <v>2290.145062015075</v>
       </c>
       <c r="O41" t="n">
-        <v>2799.468842803931</v>
+        <v>2793.117532894412</v>
       </c>
       <c r="P41" t="n">
-        <v>3194.243209161109</v>
+        <v>3506.472620341357</v>
       </c>
       <c r="Q41" t="n">
-        <v>3628.287841581621</v>
+        <v>3754.75898209704</v>
       </c>
       <c r="R41" t="n">
-        <v>3752.364163812676</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="S41" t="n">
-        <v>3642.073495339771</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="T41" t="n">
-        <v>3642.073495339771</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="U41" t="n">
-        <v>3388.543018613608</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="V41" t="n">
-        <v>3057.480131270037</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="W41" t="n">
-        <v>2727.168363779115</v>
+        <v>3463.138874755341</v>
       </c>
       <c r="X41" t="n">
-        <v>2353.702605518035</v>
+        <v>3089.673116494261</v>
       </c>
       <c r="Y41" t="n">
-        <v>2353.702605518035</v>
+        <v>2699.533784518449</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>950.0790213251788</v>
+        <v>951.3072590220021</v>
       </c>
       <c r="C42" t="n">
-        <v>775.6259920440518</v>
+        <v>776.8542297408751</v>
       </c>
       <c r="D42" t="n">
-        <v>626.6915823828006</v>
+        <v>627.9198200796238</v>
       </c>
       <c r="E42" t="n">
-        <v>467.454127377345</v>
+        <v>468.6823650741683</v>
       </c>
       <c r="F42" t="n">
-        <v>320.9195694042299</v>
+        <v>322.1478071010533</v>
       </c>
       <c r="G42" t="n">
-        <v>184.556469236848</v>
+        <v>185.7847069336714</v>
       </c>
       <c r="H42" t="n">
-        <v>94.05457487471557</v>
+        <v>95.2828125715389</v>
       </c>
       <c r="I42" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7245527668709</v>
+        <v>169.9527904636942</v>
       </c>
       <c r="K42" t="n">
-        <v>406.988751747218</v>
+        <v>408.2169894440413</v>
       </c>
       <c r="L42" t="n">
-        <v>773.6869120598834</v>
+        <v>774.9151497567067</v>
       </c>
       <c r="M42" t="n">
-        <v>1220.963237282199</v>
+        <v>1222.191474979023</v>
       </c>
       <c r="N42" t="n">
-        <v>1694.486280836654</v>
+        <v>1695.714518533477</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.447560254709</v>
+        <v>2106.675797951532</v>
       </c>
       <c r="P42" t="n">
-        <v>2415.947151730812</v>
+        <v>2417.175389427635</v>
       </c>
       <c r="Q42" t="n">
-        <v>2573.588709377411</v>
+        <v>2574.816947074235</v>
       </c>
       <c r="R42" t="n">
-        <v>2573.444355969927</v>
+        <v>2574.67259366675</v>
       </c>
       <c r="S42" t="n">
-        <v>2444.006469463407</v>
+        <v>2445.23470716023</v>
       </c>
       <c r="T42" t="n">
-        <v>2251.363469141262</v>
+        <v>2252.591706838085</v>
       </c>
       <c r="U42" t="n">
-        <v>2023.295622275678</v>
+        <v>2024.523859972501</v>
       </c>
       <c r="V42" t="n">
-        <v>1788.143514043935</v>
+        <v>1789.371751740758</v>
       </c>
       <c r="W42" t="n">
-        <v>1533.906157315733</v>
+        <v>1535.134395012557</v>
       </c>
       <c r="X42" t="n">
-        <v>1326.054657110201</v>
+        <v>1327.282894807024</v>
       </c>
       <c r="Y42" t="n">
-        <v>1118.294358345247</v>
+        <v>1119.52259604207</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>250.4279795130974</v>
+        <v>391.428890683126</v>
       </c>
       <c r="C43" t="n">
-        <v>250.4279795130974</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="D43" t="n">
-        <v>100.3113401007617</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="E43" t="n">
-        <v>100.3113401007617</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="F43" t="n">
-        <v>100.3113401007617</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="G43" t="n">
-        <v>75.04728327625354</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="H43" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="I43" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J43" t="n">
-        <v>120.1699157231891</v>
+        <v>121.3981534200124</v>
       </c>
       <c r="K43" t="n">
-        <v>324.1570986720654</v>
+        <v>325.3853363688888</v>
       </c>
       <c r="L43" t="n">
-        <v>640.7168971205615</v>
+        <v>641.945134817385</v>
       </c>
       <c r="M43" t="n">
-        <v>984.8739427201106</v>
+        <v>986.1021804169341</v>
       </c>
       <c r="N43" t="n">
-        <v>1326.282319425975</v>
+        <v>1327.510557122799</v>
       </c>
       <c r="O43" t="n">
-        <v>1625.611918346389</v>
+        <v>1626.840156043212</v>
       </c>
       <c r="P43" t="n">
-        <v>1858.219418780048</v>
+        <v>1859.447656476872</v>
       </c>
       <c r="Q43" t="n">
-        <v>1935.829714932563</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="R43" t="n">
-        <v>1935.829714932563</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="S43" t="n">
-        <v>1935.829714932563</v>
+        <v>1856.038046959061</v>
       </c>
       <c r="T43" t="n">
-        <v>1714.063099502089</v>
+        <v>1634.271431528587</v>
       </c>
       <c r="U43" t="n">
-        <v>1424.960232627732</v>
+        <v>1345.168564654231</v>
       </c>
       <c r="V43" t="n">
-        <v>1170.275744421845</v>
+        <v>1090.484076448344</v>
       </c>
       <c r="W43" t="n">
-        <v>880.8585743848846</v>
+        <v>801.066906411383</v>
       </c>
       <c r="X43" t="n">
-        <v>652.8690234868673</v>
+        <v>573.0773555133657</v>
       </c>
       <c r="Y43" t="n">
-        <v>432.0764443433371</v>
+        <v>573.0773555133657</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2108.594396408333</v>
+        <v>1409.940682924297</v>
       </c>
       <c r="C44" t="n">
-        <v>1739.631879467921</v>
+        <v>1040.978165983886</v>
       </c>
       <c r="D44" t="n">
-        <v>1381.366180861171</v>
+        <v>682.7124673771352</v>
       </c>
       <c r="E44" t="n">
-        <v>995.5779282629267</v>
+        <v>296.924214778891</v>
       </c>
       <c r="F44" t="n">
-        <v>584.5920234733192</v>
+        <v>296.924214778891</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6277824280176</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="H44" t="n">
-        <v>117.0441820367848</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="I44" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J44" t="n">
-        <v>263.926414235279</v>
+        <v>265.1546519321023</v>
       </c>
       <c r="K44" t="n">
-        <v>597.7457879251255</v>
+        <v>758.8001270359591</v>
       </c>
       <c r="L44" t="n">
-        <v>1048.780001173534</v>
+        <v>1209.834340284368</v>
       </c>
       <c r="M44" t="n">
-        <v>1582.311905845459</v>
+        <v>1743.366244956293</v>
       </c>
       <c r="N44" t="n">
-        <v>2337.122057510371</v>
+        <v>2290.145062015075</v>
       </c>
       <c r="O44" t="n">
-        <v>2840.094528389708</v>
+        <v>2793.117532894412</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.868894746886</v>
+        <v>3506.472620341357</v>
       </c>
       <c r="Q44" t="n">
-        <v>3693.347097255874</v>
+        <v>3754.75898209704</v>
       </c>
       <c r="R44" t="n">
-        <v>3752.364163812676</v>
+        <v>3813.776048653842</v>
       </c>
       <c r="S44" t="n">
-        <v>3642.073495339771</v>
+        <v>3703.485380180937</v>
       </c>
       <c r="T44" t="n">
-        <v>3436.095747723994</v>
+        <v>3497.507632565159</v>
       </c>
       <c r="U44" t="n">
-        <v>3182.56527099783</v>
+        <v>3243.977155838996</v>
       </c>
       <c r="V44" t="n">
-        <v>2851.502383654259</v>
+        <v>2912.914268495425</v>
       </c>
       <c r="W44" t="n">
-        <v>2498.733728384145</v>
+        <v>2560.145613225311</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.733728384145</v>
+        <v>2186.679854964231</v>
       </c>
       <c r="Y44" t="n">
-        <v>2108.594396408333</v>
+        <v>1796.540522988419</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2128.854475760444</v>
+        <v>951.3072590220021</v>
       </c>
       <c r="C45" t="n">
-        <v>1954.401446479317</v>
+        <v>776.8542297408751</v>
       </c>
       <c r="D45" t="n">
-        <v>1805.467036818066</v>
+        <v>627.9198200796238</v>
       </c>
       <c r="E45" t="n">
-        <v>1646.22958181261</v>
+        <v>468.6823650741683</v>
       </c>
       <c r="F45" t="n">
-        <v>1499.695023839495</v>
+        <v>322.1478071010533</v>
       </c>
       <c r="G45" t="n">
-        <v>1363.331923672113</v>
+        <v>185.7847069336714</v>
       </c>
       <c r="H45" t="n">
-        <v>1272.830029309981</v>
+        <v>95.2828125715389</v>
       </c>
       <c r="I45" t="n">
-        <v>1253.822737711519</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J45" t="n">
-        <v>1347.500007202136</v>
+        <v>169.9527904636942</v>
       </c>
       <c r="K45" t="n">
-        <v>1585.764206182484</v>
+        <v>408.2169894440414</v>
       </c>
       <c r="L45" t="n">
-        <v>1952.462366495149</v>
+        <v>774.9151497567068</v>
       </c>
       <c r="M45" t="n">
-        <v>2399.738691717464</v>
+        <v>1222.191474979023</v>
       </c>
       <c r="N45" t="n">
-        <v>2873.261735271919</v>
+        <v>1695.714518533477</v>
       </c>
       <c r="O45" t="n">
-        <v>3284.223014689974</v>
+        <v>2106.675797951532</v>
       </c>
       <c r="P45" t="n">
-        <v>3594.722606166077</v>
+        <v>2417.175389427635</v>
       </c>
       <c r="Q45" t="n">
-        <v>3752.364163812676</v>
+        <v>2574.816947074235</v>
       </c>
       <c r="R45" t="n">
-        <v>3752.219810405192</v>
+        <v>2574.67259366675</v>
       </c>
       <c r="S45" t="n">
-        <v>3622.781923898672</v>
+        <v>2445.23470716023</v>
       </c>
       <c r="T45" t="n">
-        <v>3430.138923576527</v>
+        <v>2252.591706838085</v>
       </c>
       <c r="U45" t="n">
-        <v>3202.071076710943</v>
+        <v>2024.523859972501</v>
       </c>
       <c r="V45" t="n">
-        <v>2966.9189684792</v>
+        <v>1789.371751740758</v>
       </c>
       <c r="W45" t="n">
-        <v>2712.681611750999</v>
+        <v>1535.134395012557</v>
       </c>
       <c r="X45" t="n">
-        <v>2504.830111545466</v>
+        <v>1327.282894807024</v>
       </c>
       <c r="Y45" t="n">
-        <v>2297.069812780512</v>
+        <v>1119.52259604207</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>516.0675111386993</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="C46" t="n">
-        <v>516.0675111386993</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="D46" t="n">
-        <v>516.0675111386993</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="E46" t="n">
-        <v>368.1544175563062</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="F46" t="n">
-        <v>221.2644700583958</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="G46" t="n">
-        <v>221.2644700583958</v>
+        <v>222.4927077552191</v>
       </c>
       <c r="H46" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="I46" t="n">
-        <v>75.04728327625354</v>
+        <v>76.27552097307685</v>
       </c>
       <c r="J46" t="n">
-        <v>120.1699157231891</v>
+        <v>121.3981534200124</v>
       </c>
       <c r="K46" t="n">
-        <v>324.1570986720654</v>
+        <v>325.3853363688888</v>
       </c>
       <c r="L46" t="n">
-        <v>640.7168971205615</v>
+        <v>641.945134817385</v>
       </c>
       <c r="M46" t="n">
-        <v>984.8739427201106</v>
+        <v>986.1021804169341</v>
       </c>
       <c r="N46" t="n">
-        <v>1326.282319425975</v>
+        <v>1327.510557122799</v>
       </c>
       <c r="O46" t="n">
-        <v>1625.611918346389</v>
+        <v>1626.840156043212</v>
       </c>
       <c r="P46" t="n">
-        <v>1858.219418780048</v>
+        <v>1859.447656476872</v>
       </c>
       <c r="Q46" t="n">
-        <v>1935.829714932563</v>
+        <v>1937.057952629386</v>
       </c>
       <c r="R46" t="n">
-        <v>1935.829714932563</v>
+        <v>1917.931862517618</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.143830759389</v>
+        <v>1726.245978344444</v>
       </c>
       <c r="T46" t="n">
-        <v>1744.143830759389</v>
+        <v>1504.47936291397</v>
       </c>
       <c r="U46" t="n">
-        <v>1455.040963885033</v>
+        <v>1215.376496039614</v>
       </c>
       <c r="V46" t="n">
-        <v>1200.356475679146</v>
+        <v>960.6920078337271</v>
       </c>
       <c r="W46" t="n">
-        <v>910.9393056421852</v>
+        <v>671.2748377967665</v>
       </c>
       <c r="X46" t="n">
-        <v>682.9497547441679</v>
+        <v>443.2852868987492</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.9497547441679</v>
+        <v>222.4927077552191</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8075,10 +8075,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8312,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,10 +8382,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.8335165618801</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>233.4357089658653</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>227.7528737187178</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N8" t="n">
-        <v>265.7588083296575</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
-        <v>268.2321264680436</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>269.7315278475637</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5464629922113</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>177.4609574468956</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M9" t="n">
-        <v>180.7541542606185</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>181.3384687356191</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9730561082392</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2941146038972</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>159.0938020791154</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.6489437067346</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>100.6489437067348</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>314.1425994782068</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>172.4995987156012</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>148.4180109385408</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>205.0727796301213</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>384.8145893755061</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>195.2514630883926</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>260.9678829613756</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>76.45227440777091</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>176.2173930448423</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
-        <v>192.9047586887092</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>7.630896635344811</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13798426930725</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>161.4405064787983</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>187.6346168331611</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>161.4405064787983</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>210.1326612183125</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>46.19662567037619</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>253.0087655412145</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.28545395224272</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>238.3686902985341</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>340.331371226156</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>20.20622166296437</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>158.0911196701348</v>
       </c>
       <c r="X16" t="n">
-        <v>69.49154016722144</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.2397163811212</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>49.25547525435564</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>87.07405112676685</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>43.42090028205142</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>164.7581868144287</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>161.5631840798973</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.9163366731433</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.51033215391924</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>94.46351779007605</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>147.8062085958016</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>22.23231890140005</v>
+        <v>2.110166557896321</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.0143920027651</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>109.5593187178197</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>242.6571270186049</v>
+        <v>192.4795187856975</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.61855901252338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>69.99732345939655</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>865770.1599907721</v>
+        <v>864018.5245822739</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>865770.1599907721</v>
+        <v>864018.5245822739</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>865467.2440541396</v>
+        <v>864018.5245822739</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>713034.8233412944</v>
+        <v>718989.6949766987</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>713034.8233412945</v>
+        <v>718989.6949766986</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713034.8233412947</v>
+        <v>718989.6949766986</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>713034.8233412944</v>
+        <v>718989.6949766986</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>554087.6892159714</v>
+        <v>557763.2911163823</v>
       </c>
       <c r="F2" t="n">
-        <v>554087.6892159714</v>
+        <v>557763.2911163822</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="J2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="K2" t="n">
         <v>615476.7696748239</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748235</v>
       </c>
       <c r="M2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748233</v>
       </c>
       <c r="N2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="O2" t="n">
-        <v>554087.6892159713</v>
+        <v>557763.2911163826</v>
       </c>
       <c r="P2" t="n">
-        <v>554087.6892159713</v>
+        <v>557763.2911163825</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>9246.052035312925</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3468.93645261375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1140542.677275953</v>
+        <v>1151969.502288325</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>70281.39362520297</v>
+        <v>66073.37451103023</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>7218.764569210179</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>262.834662732196</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>223652.7812768293</v>
+        <v>230726.5169522112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398727.7855252126</v>
+        <v>400529.7967627071</v>
       </c>
       <c r="C4" t="n">
-        <v>398727.7855252126</v>
+        <v>400529.7967627071</v>
       </c>
       <c r="D4" t="n">
-        <v>397780.0724463618</v>
+        <v>400529.7967627071</v>
       </c>
       <c r="E4" t="n">
-        <v>16628.44659129068</v>
+        <v>17966.43241296612</v>
       </c>
       <c r="F4" t="n">
-        <v>16628.44659129069</v>
+        <v>17966.43241296613</v>
       </c>
       <c r="G4" t="n">
-        <v>38975.18638660156</v>
+        <v>38975.18638660158</v>
       </c>
       <c r="H4" t="n">
-        <v>38975.18638660159</v>
+        <v>38975.18638660157</v>
       </c>
       <c r="I4" t="n">
+        <v>38975.18638660157</v>
+      </c>
+      <c r="J4" t="n">
         <v>38975.18638660158</v>
       </c>
-      <c r="J4" t="n">
-        <v>38975.18638660156</v>
-      </c>
       <c r="K4" t="n">
+        <v>38975.18638660157</v>
+      </c>
+      <c r="L4" t="n">
+        <v>38975.18638660155</v>
+      </c>
+      <c r="M4" t="n">
+        <v>38975.18638660157</v>
+      </c>
+      <c r="N4" t="n">
         <v>38975.18638660158</v>
       </c>
-      <c r="L4" t="n">
-        <v>38975.18638660152</v>
-      </c>
-      <c r="M4" t="n">
-        <v>38975.18638660155</v>
-      </c>
-      <c r="N4" t="n">
-        <v>38975.18638660157</v>
-      </c>
       <c r="O4" t="n">
-        <v>16628.44659129068</v>
+        <v>17966.43241296614</v>
       </c>
       <c r="P4" t="n">
-        <v>16628.44659129068</v>
+        <v>17966.43241296614</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="D5" t="n">
-        <v>36177.53064849005</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
-        <v>80793.06736288658</v>
+        <v>81726.52801247229</v>
       </c>
       <c r="F5" t="n">
-        <v>80793.06736288658</v>
+        <v>81726.52801247231</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26499,7 +26499,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>80793.06736288658</v>
+        <v>81726.52801247231</v>
       </c>
       <c r="P5" t="n">
-        <v>80793.06736288658</v>
+        <v>81726.52801247231</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188279.8188012443</v>
+        <v>191226.4493109724</v>
       </c>
       <c r="C6" t="n">
-        <v>201545.2864003272</v>
+        <v>200472.5013462853</v>
       </c>
       <c r="D6" t="n">
-        <v>198880.8320973539</v>
+        <v>200472.5013462854</v>
       </c>
       <c r="E6" t="n">
-        <v>-683876.5020141592</v>
+        <v>-696432.8516144273</v>
       </c>
       <c r="F6" t="n">
-        <v>456666.1752617942</v>
+        <v>455536.6506738974</v>
       </c>
       <c r="G6" t="n">
-        <v>409836.6714093058</v>
+        <v>413372.73562122</v>
       </c>
       <c r="H6" t="n">
-        <v>480118.0650345089</v>
+        <v>479446.1101322505</v>
       </c>
       <c r="I6" t="n">
-        <v>480118.0650345082</v>
+        <v>479446.1101322505</v>
       </c>
       <c r="J6" t="n">
-        <v>469761.1811307045</v>
+        <v>472227.3455630403</v>
       </c>
       <c r="K6" t="n">
-        <v>480118.0650345086</v>
+        <v>479446.1101322507</v>
       </c>
       <c r="L6" t="n">
-        <v>479855.230371776</v>
+        <v>479446.1101322504</v>
       </c>
       <c r="M6" t="n">
-        <v>256465.2837576791</v>
+        <v>248719.5931800388</v>
       </c>
       <c r="N6" t="n">
-        <v>480118.0650345088</v>
+        <v>479446.1101322506</v>
       </c>
       <c r="O6" t="n">
-        <v>456666.1752617941</v>
+        <v>455536.6506738978</v>
       </c>
       <c r="P6" t="n">
-        <v>456666.1752617941</v>
+        <v>455536.6506738976</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D4" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>938.0910409531691</v>
+        <v>953.4440121634605</v>
       </c>
       <c r="F4" t="n">
-        <v>938.0910409531691</v>
+        <v>953.4440121634606</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>938.0910409531691</v>
+        <v>953.4440121634606</v>
       </c>
       <c r="P4" t="n">
-        <v>938.0910409531691</v>
+        <v>953.4440121634606</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.102837700056</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.038498653576674</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>897.4686653377519</v>
+        <v>925.8539869031443</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>256.4218896517611</v>
+        <v>241.0689184414697</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031622</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.038498653575971</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>897.4686653377526</v>
+        <v>925.8539869031446</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.038498653576674</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>897.4686653377519</v>
+        <v>925.8539869031443</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>256.4218896517611</v>
+        <v>241.0689184414697</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.2921687798708</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>337.113496435638</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27435,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>308.1895171572808</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>65.84192992838649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,10 +27590,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y4" t="n">
-        <v>194.0141565899793</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>336.8889638227391</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y5" t="n">
-        <v>373.5512430849109</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>77.36996540850728</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.57395719080255</v>
+        <v>75.85653990335669</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>121.386110586733</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27833,16 +27833,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>366.2536701262942</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H8" t="n">
-        <v>337.9228706384156</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>108.3189904062645</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>168.0611385912109</v>
+        <v>206.6587639061162</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>130.9140142681103</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>159.5105013813016</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>185.3184865792991</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X9" t="n">
-        <v>169.9927967614179</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>182.1279928542758</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.20960456652</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>107.9930974027951</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>92.89079271141465</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K10" t="n">
-        <v>10.71893117324939</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,25 +28052,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>85.60728995481479</v>
+        <v>61.1141911918582</v>
       </c>
       <c r="R10" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>211.5152677084107</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2.48846056906043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,7 +31852,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
         <v>557.708647897025</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,10 +34865,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35102,10 +35102,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N8" t="n">
-        <v>38.98106750974386</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O8" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>38.98106750974386</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>40.62237561541726</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M9" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>40.62237561541726</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>40.62237561541726</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35427,10 +35427,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>557.8557882984873</v>
       </c>
       <c r="Q11" t="n">
-        <v>351.4432485104541</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35500,7 +35500,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525806</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2390580990669</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,10 +35661,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>822.1956003664259</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35889,25 +35889,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>628.0897131079333</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>700.7198463514522</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,16 +36135,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1257805183404</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36369,7 +36369,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>923.7357052057329</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>703.3044639766117</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>769.0208838495947</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37080,16 +37080,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>584.50527529599</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>427.0116978485618</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
-        <v>731.8258745189361</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>344.8221831907453</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>648.4398196822187</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>498.6317930341988</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37797,13 +37797,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>438.4289216368806</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>498.6317930341988</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38028,16 +38028,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>762.434496631224</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
